--- a/关卡设计/02.xlsx
+++ b/关卡设计/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Colaplanet\关卡设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6BD0DB-F47A-43F0-9433-B67E0760BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280151A-EC3A-44F4-AA4E-29CD746D762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>隐藏宝箱：随便塞点垃圾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,46 @@
   </si>
   <si>
     <t>绿门、蓝门：进入后反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点亮火炬解除对应陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：造成一定伤害并击退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AL36"/>
+  <dimension ref="C1:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13:AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -475,7 +515,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -500,7 +540,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
@@ -534,8 +574,15 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+    </row>
+    <row r="4" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -545,7 +592,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -553,7 +602,9 @@
         <v>2</v>
       </c>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -571,8 +622,13 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+    </row>
+    <row r="5" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -584,7 +640,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -594,7 +652,9 @@
         <v>2</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -606,8 +666,13 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+    </row>
+    <row r="6" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -636,13 +701,16 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+    </row>
+    <row r="7" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -676,7 +744,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -708,10 +776,19 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
+      <c r="AH8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+    </row>
+    <row r="9" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -743,8 +820,13 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+    </row>
+    <row r="10" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -752,7 +834,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -777,14 +861,23 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
+      <c r="AG10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-    </row>
-    <row r="11" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+    </row>
+    <row r="11" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -793,7 +886,9 @@
       <c r="H11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -810,9 +905,10 @@
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -820,8 +916,13 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+    </row>
+    <row r="12" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -854,7 +955,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
@@ -888,12 +989,17 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="AH13" s="3"/>
       <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+    </row>
+    <row r="14" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -923,11 +1029,18 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="3"/>
+      <c r="AG14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="AH14" s="3"/>
       <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+    </row>
+    <row r="15" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -960,8 +1073,13 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+    </row>
+    <row r="16" spans="3:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -990,11 +1108,16 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="AI16" s="1"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
     </row>
     <row r="17" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="1"/>
@@ -1102,9 +1225,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="AH19" s="3"/>
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1259,9 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="AH20" s="3"/>
       <c r="AI20" s="1"/>
     </row>
@@ -1199,9 +1322,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="1"/>
     </row>
@@ -1283,22 +1404,20 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -1320,19 +1439,22 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="Y26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
+      <c r="AB26" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
@@ -1371,13 +1493,6 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1403,11 +1518,6 @@
       <c r="AH28" s="3"/>
     </row>
     <row r="29" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1433,11 +1543,6 @@
       <c r="AH29" s="3"/>
     </row>
     <row r="30" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1463,11 +1568,6 @@
       <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1618,8 +1718,10 @@
       <c r="AH36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C28:G31"/>
+  <mergeCells count="8">
+    <mergeCell ref="AM3:AQ6"/>
+    <mergeCell ref="AM8:AQ11"/>
+    <mergeCell ref="AM13:AQ16"/>
     <mergeCell ref="C23:G26"/>
     <mergeCell ref="C3:G6"/>
     <mergeCell ref="C8:G11"/>
